--- a/智慧社区架构设计.xlsx
+++ b/智慧社区架构设计.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24" windowWidth="19176" windowHeight="7296"/>
+    <workbookView xWindow="0" yWindow="24" windowWidth="19176" windowHeight="7296" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="应用服务架构" sheetId="2" r:id="rId1"/>
     <sheet name="数据库服务架构" sheetId="3" r:id="rId2"/>
     <sheet name="组织架构" sheetId="5" r:id="rId3"/>
+    <sheet name="部署构想" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -271,7 +272,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -566,6 +567,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9873,6 +9877,819 @@
             <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="笑脸 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4008120" y="563880"/>
+          <a:ext cx="685800" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用户</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="笑脸 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4907280" y="579120"/>
+          <a:ext cx="685800" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用户</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="笑脸 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5897880" y="571500"/>
+          <a:ext cx="685800" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用户</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3116580" y="1569720"/>
+          <a:ext cx="4716780" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>https://</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>域名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="2948940"/>
+          <a:ext cx="1440180" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>北京服务</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3931920" y="2948940"/>
+          <a:ext cx="1440180" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>上海服务</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="圆角矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5737860" y="2941320"/>
+          <a:ext cx="1440180" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>深圳服务</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="圆角矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7536180" y="2933700"/>
+          <a:ext cx="1440180" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>广州服务</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="形状 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3634740" y="1108710"/>
+          <a:ext cx="982980" cy="2697480"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="曲线连接符 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4572000" y="2045970"/>
+          <a:ext cx="982980" cy="822960"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="曲线连接符 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5478780" y="1962150"/>
+          <a:ext cx="975360" cy="982980"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="曲线连接符 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6381750" y="1059180"/>
+          <a:ext cx="967740" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="曲线连接符 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4665345" y="760095"/>
+          <a:ext cx="495300" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="曲线连接符 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="4"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5122545" y="1217295"/>
+          <a:ext cx="480060" cy="224790"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="曲线连接符 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="4"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5614035" y="942975"/>
+          <a:ext cx="487680" cy="765810"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -10205,7 +11022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+    <sheetView topLeftCell="B20" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:T41"/>
     </sheetView>
   </sheetViews>
@@ -12952,4 +13769,360 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D3:O26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:O26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="3" spans="4:15">
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+    </row>
+    <row r="4" spans="4:15">
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+    </row>
+    <row r="5" spans="4:15">
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+    </row>
+    <row r="6" spans="4:15">
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+    </row>
+    <row r="7" spans="4:15">
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+    </row>
+    <row r="8" spans="4:15">
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+    </row>
+    <row r="9" spans="4:15">
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+    </row>
+    <row r="10" spans="4:15">
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+    </row>
+    <row r="11" spans="4:15">
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+    </row>
+    <row r="12" spans="4:15">
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+    </row>
+    <row r="13" spans="4:15">
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+    </row>
+    <row r="14" spans="4:15">
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+    </row>
+    <row r="15" spans="4:15">
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+    </row>
+    <row r="16" spans="4:15">
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+    </row>
+    <row r="17" spans="4:15">
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+    </row>
+    <row r="18" spans="4:15">
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+    </row>
+    <row r="19" spans="4:15">
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+    </row>
+    <row r="20" spans="4:15">
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+    </row>
+    <row r="21" spans="4:15">
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+    </row>
+    <row r="22" spans="4:15">
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+    </row>
+    <row r="23" spans="4:15">
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+    </row>
+    <row r="24" spans="4:15">
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+    </row>
+    <row r="25" spans="4:15">
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+    </row>
+    <row r="26" spans="4:15">
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:O26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/智慧社区架构设计.xlsx
+++ b/智慧社区架构设计.xlsx
@@ -4,24 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24" windowWidth="19176" windowHeight="7296" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="24" windowWidth="19176" windowHeight="7296" tabRatio="694" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="应用服务架构" sheetId="2" r:id="rId1"/>
-    <sheet name="数据库服务架构" sheetId="3" r:id="rId2"/>
-    <sheet name="组织架构" sheetId="5" r:id="rId3"/>
-    <sheet name="部署构想" sheetId="6" r:id="rId4"/>
+    <sheet name="最简单的数据库架构设计" sheetId="9" r:id="rId2"/>
+    <sheet name="按微服务设计数据库" sheetId="3" r:id="rId3"/>
+    <sheet name="按微服务+分公司设计数据库" sheetId="8" r:id="rId4"/>
+    <sheet name="组织架构" sheetId="5" r:id="rId5"/>
+    <sheet name="部署构想" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>每个大业务模块以独立的数据库存储，这些独立的数据库负责管理所有物业分公司的数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>系统管理层</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,10 +42,6 @@
   </si>
   <si>
     <t>具体业务操作层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括支撑平台运行起来的所有基础数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -272,7 +266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -309,58 +303,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -390,31 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4359,26 +4281,708 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="圆柱形 1"/>
+        <xdr:cNvPr id="10" name="圆柱形 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6278880" y="701040"/>
+          <a:off x="1706880" y="1424940"/>
+          <a:ext cx="1775460" cy="3672840"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>平台管理数据、所有业务数据统一放到一个数据库</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>92837</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="548640"/>
+          <a:ext cx="2354580" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="1905"/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:shade val="20000"/>
+                      <a:satMod val="200000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="78000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="90000"/>
+                      <a:shade val="89000"/>
+                      <a:satMod val="220000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="12000"/>
+                      <a:satMod val="255000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="69850" dist="43180" dir="5400000">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>最简单的数据库设计</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="1905"/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:shade val="20000"/>
+                      <a:satMod val="200000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="78000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="90000"/>
+                      <a:shade val="89000"/>
+                      <a:satMod val="220000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="12000"/>
+                      <a:satMod val="255000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="69850" dist="43180" dir="5400000">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>~</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="1905"/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:shade val="20000"/>
+                      <a:satMod val="200000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="78000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="90000"/>
+                      <a:shade val="89000"/>
+                      <a:satMod val="220000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="12000"/>
+                      <a:satMod val="255000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="69850" dist="43180" dir="5400000">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>不划分数据库</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆柱形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2529840" y="1257300"/>
           <a:ext cx="1158240" cy="1303020"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>水源模块数据库</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆柱形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4008120" y="1272540"/>
+          <a:ext cx="1158240" cy="1303020"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>智慧停车数据库</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆柱形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="975360" y="3566160"/>
+          <a:ext cx="1158240" cy="1303020"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>梯控模块数据库</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆柱形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5402580" y="1272540"/>
+          <a:ext cx="1158240" cy="1303020"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>智慧门禁模块数据库</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆柱形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="3573780"/>
+          <a:ext cx="1158240" cy="1303020"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>视频监控数据库</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆柱形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3977640" y="3581400"/>
+          <a:ext cx="1158240" cy="1303020"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>安防报警数据库</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="圆柱形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="975360" y="1272540"/>
+          <a:ext cx="1158240" cy="1303020"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>电力模块数据库</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="圆柱形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5394960" y="3596640"/>
+          <a:ext cx="1158240" cy="1303020"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>小区公共广播数据库</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="圆柱形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9563100" y="1249680"/>
+          <a:ext cx="1158240" cy="3672840"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst/>
@@ -4416,28 +5020,1623 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="圆柱形 2"/>
+        <xdr:cNvPr id="50" name="右大括号 49"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1920240" y="2827020"/>
-          <a:ext cx="1158240" cy="1303020"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
+          <a:off x="6560820" y="1920240"/>
+          <a:ext cx="731520" cy="2461260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1775460" cy="1127760"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="TextBox 50"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7155180" y="2606040"/>
+          <a:ext cx="1775460" cy="1127760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>按照微服务划分数据库，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>每个数据库存储所有分公司的数据。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="右大括号 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10728960" y="1981200"/>
+          <a:ext cx="731520" cy="2461260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1219200" cy="1546860"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="TextBox 52"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11239500" y="2560320"/>
+          <a:ext cx="1219200" cy="1546860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>存储用户、菜单资源以及支撑云平台运行的所有数据</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>125838</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>92837</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="TextBox 53"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="548640"/>
+          <a:ext cx="1954638" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="1905"/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:shade val="20000"/>
+                      <a:satMod val="200000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="78000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="90000"/>
+                      <a:shade val="89000"/>
+                      <a:satMod val="220000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="12000"/>
+                      <a:satMod val="255000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="69850" dist="43180" dir="5400000">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>按微服务划分数据库</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6626</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>145774</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="组合 28"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="616226" y="563218"/>
+          <a:ext cx="3796748" cy="3670853"/>
+          <a:chOff x="616226" y="563218"/>
+          <a:chExt cx="3796748" cy="3670853"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="圆柱形 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1032013" y="1346090"/>
+            <a:ext cx="717274" cy="774258"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>电力模块数据库</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="圆柱形 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1890756" y="1385846"/>
+            <a:ext cx="693420" cy="727876"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>水源数据库</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="圆柱形 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2751485" y="1404730"/>
+            <a:ext cx="674202" cy="735496"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>智慧停车数据库</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="圆柱形 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3613541" y="1424609"/>
+            <a:ext cx="700046" cy="748748"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>智慧门禁数据库</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="圆柱形 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1004183" y="3210011"/>
+            <a:ext cx="711974" cy="706006"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>梯控模块数据库</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="圆柱形 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1829796" y="3213651"/>
+            <a:ext cx="701372" cy="702369"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>视频监控数据库</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="圆柱形 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2683900" y="3246783"/>
+            <a:ext cx="655652" cy="675863"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>安防报警数据库</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="圆柱形 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3459818" y="3246785"/>
+            <a:ext cx="668240" cy="702365"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>小区公共广播数据库</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="圆柱形 25"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2240604" y="2288322"/>
+            <a:ext cx="721258" cy="726550"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>平台管理</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>数据库</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="矩形 26"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="795130" y="947530"/>
+            <a:ext cx="3617844" cy="3286541"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="TextBox 27"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="828261" y="967409"/>
+            <a:ext cx="1172116" cy="275717"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" cap="none" spc="0">
+                <a:ln w="1905"/>
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent6">
+                        <a:shade val="20000"/>
+                        <a:satMod val="200000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="78000">
+                      <a:schemeClr val="accent6">
+                        <a:tint val="90000"/>
+                        <a:shade val="89000"/>
+                        <a:satMod val="220000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent6">
+                        <a:tint val="12000"/>
+                        <a:satMod val="255000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000"/>
+                </a:gradFill>
+                <a:effectLst>
+                  <a:innerShdw blurRad="69850" dist="43180" dir="5400000">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="65000"/>
+                    </a:srgbClr>
+                  </a:innerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>平台汇总数据库</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="TextBox 43"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="616226" y="563218"/>
+            <a:ext cx="1954638" cy="275717"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" cap="none" spc="0">
+                <a:ln w="1905"/>
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent6">
+                        <a:shade val="20000"/>
+                        <a:satMod val="200000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="78000">
+                      <a:schemeClr val="accent6">
+                        <a:tint val="90000"/>
+                        <a:shade val="89000"/>
+                        <a:satMod val="220000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent6">
+                        <a:tint val="12000"/>
+                        <a:satMod val="255000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000"/>
+                </a:gradFill>
+                <a:effectLst>
+                  <a:innerShdw blurRad="69850" dist="43180" dir="5400000">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="65000"/>
+                    </a:srgbClr>
+                  </a:innerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>按微服务</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" cap="none" spc="0">
+                <a:ln w="1905"/>
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent6">
+                        <a:shade val="20000"/>
+                        <a:satMod val="200000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="78000">
+                      <a:schemeClr val="accent6">
+                        <a:tint val="90000"/>
+                        <a:shade val="89000"/>
+                        <a:satMod val="220000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent6">
+                        <a:tint val="12000"/>
+                        <a:satMod val="255000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000"/>
+                </a:gradFill>
+                <a:effectLst>
+                  <a:innerShdw blurRad="69850" dist="43180" dir="5400000">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="65000"/>
+                    </a:srgbClr>
+                  </a:innerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" cap="none" spc="0">
+                <a:ln w="1905"/>
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent6">
+                        <a:shade val="20000"/>
+                        <a:satMod val="200000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="78000">
+                      <a:schemeClr val="accent6">
+                        <a:tint val="90000"/>
+                        <a:shade val="89000"/>
+                        <a:satMod val="220000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent6">
+                        <a:tint val="12000"/>
+                        <a:satMod val="255000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000"/>
+                </a:gradFill>
+                <a:effectLst>
+                  <a:innerShdw blurRad="69850" dist="43180" dir="5400000">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="65000"/>
+                    </a:srgbClr>
+                  </a:innerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>分公司划分数据库</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>569839</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>536708</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="组合 29"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6056239" y="894521"/>
+          <a:ext cx="3624469" cy="3286541"/>
+          <a:chOff x="828261" y="947530"/>
+          <a:chExt cx="3624469" cy="3286541"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="圆柱形 30"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1032013" y="1346090"/>
+            <a:ext cx="717274" cy="774258"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>电力模块数据库</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="圆柱形 31"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1890756" y="1385846"/>
+            <a:ext cx="693420" cy="727876"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>水源数据库</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="圆柱形 32"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2751485" y="1404730"/>
+            <a:ext cx="674202" cy="735496"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>智慧停车数据库</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="圆柱形 33"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3613541" y="1424609"/>
+            <a:ext cx="700046" cy="748748"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>智慧门禁数据库</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="圆柱形 34"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1004183" y="3210011"/>
+            <a:ext cx="711974" cy="706006"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>梯控模块数据库</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="圆柱形 35"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1829796" y="3213651"/>
+            <a:ext cx="701372" cy="702369"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>视频监控数据库</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="圆柱形 36"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2683900" y="3246783"/>
+            <a:ext cx="655652" cy="675863"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>安防报警数据库</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="圆柱形 37"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3459818" y="3246785"/>
+            <a:ext cx="668240" cy="702365"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>小区公共广播数据库</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="圆柱形 38"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2240604" y="2288322"/>
+            <a:ext cx="721258" cy="726550"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>平台管理</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>数据库</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="矩形 39"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="834886" y="947530"/>
+            <a:ext cx="3617844" cy="3286541"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="TextBox 40"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="828261" y="967409"/>
+            <a:ext cx="1317797" cy="275717"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" cap="none" spc="0">
+                <a:ln w="1905"/>
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent6">
+                        <a:shade val="20000"/>
+                        <a:satMod val="200000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="78000">
+                      <a:schemeClr val="accent6">
+                        <a:tint val="90000"/>
+                        <a:shade val="89000"/>
+                        <a:satMod val="220000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent6">
+                        <a:tint val="12000"/>
+                        <a:satMod val="255000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000"/>
+                </a:gradFill>
+                <a:effectLst>
+                  <a:innerShdw blurRad="69850" dist="43180" dir="5400000">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="65000"/>
+                    </a:srgbClr>
+                  </a:innerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>各个分公司数据库</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185529</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>79512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>516835</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>39756</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="右箭头 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4452729" y="3233529"/>
+          <a:ext cx="1550506" cy="887897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -4464,7 +6663,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>水源模块数据库</a:t>
+            <a:t>新公司加入时复制</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4473,28 +6672,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>178904</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>178904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>503582</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139148</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="圆柱形 3"/>
+        <xdr:cNvPr id="43" name="左箭头 42"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3398520" y="2842260"/>
-          <a:ext cx="1158240" cy="1303020"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
+          <a:off x="4446104" y="1477617"/>
+          <a:ext cx="1543878" cy="887896"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -4521,2107 +6720,17 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>智慧停车数据库</a:t>
+            <a:t>定时推送数据到平台库</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="圆柱形 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6179820" y="2842260"/>
-          <a:ext cx="1158240" cy="1303020"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>梯控模块数据库</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="圆柱形 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4792980" y="2842260"/>
-          <a:ext cx="1158240" cy="1303020"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>智慧门禁模块数据库</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="圆柱形 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7604760" y="2849880"/>
-          <a:ext cx="1158240" cy="1303020"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>视频监控数据库</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="圆柱形 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9083040" y="2857500"/>
-          <a:ext cx="1158240" cy="1303020"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>安防报警数据库</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="圆柱形 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="365760" y="2872740"/>
-          <a:ext cx="1158240" cy="1303020"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>电力模块数据库</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="圆柱形 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10485120" y="2872740"/>
-          <a:ext cx="1158240" cy="1303020"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>小区公共广播数据库</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="曲线连接符 12"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="10" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4076700" y="91440"/>
-          <a:ext cx="868680" cy="4693920"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="曲线连接符 14"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="3" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4876800" y="845820"/>
-          <a:ext cx="822960" cy="3139440"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="曲线连接符 16"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="5608320" y="1592580"/>
-          <a:ext cx="838200" cy="1661160"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="曲线连接符 18"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="11" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9136380" y="-274320"/>
-          <a:ext cx="868680" cy="5425440"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="曲线连接符 20"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="9" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8442960" y="419100"/>
-          <a:ext cx="853440" cy="4023360"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="曲线连接符 22"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="7" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="6305550" y="2289810"/>
-          <a:ext cx="838200" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="曲线连接符 24"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6998970" y="1863090"/>
-          <a:ext cx="838200" cy="1120140"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="曲线连接符 26"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="8" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7707630" y="1154430"/>
-          <a:ext cx="845820" cy="2545080"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="圆角矩形 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5074920" y="4937760"/>
-          <a:ext cx="1112520" cy="480060"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>物业分公司</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="圆角矩形 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6499860" y="4937760"/>
-          <a:ext cx="1112520" cy="480060"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>物业分公司</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="圆角矩形 29"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8008620" y="4937760"/>
-          <a:ext cx="1112520" cy="480060"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>物业分公司</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>n</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="曲线连接符 33"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="3"/>
-          <a:endCxn id="28" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3516630" y="2823210"/>
-          <a:ext cx="762000" cy="3467100"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="曲线连接符 35"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="29" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4983480" y="2865120"/>
-          <a:ext cx="807720" cy="3337560"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="曲线连接符 37"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="3"/>
-          <a:endCxn id="29" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4229100" y="2110740"/>
-          <a:ext cx="762000" cy="4892040"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="曲线连接符 39"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="3"/>
-          <a:endCxn id="30" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4983480" y="1356360"/>
-          <a:ext cx="762000" cy="6400800"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="曲线连接符 45"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="28" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4271010" y="3577590"/>
-          <a:ext cx="807720" cy="1912620"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="曲线连接符 48"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="30" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5737860" y="2110740"/>
-          <a:ext cx="807720" cy="4846320"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="曲线连接符 54"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="28" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5017770" y="4324350"/>
-          <a:ext cx="792480" cy="434340"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="曲线连接符 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="29" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5730240" y="3611880"/>
-          <a:ext cx="792480" cy="1859280"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="曲线连接符 59"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="30" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6484620" y="2857500"/>
-          <a:ext cx="792480" cy="3368040"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="曲线连接符 65"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="3"/>
-          <a:endCxn id="28" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="5715000" y="4061460"/>
-          <a:ext cx="792480" cy="960120"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="曲线连接符 67"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="3"/>
-          <a:endCxn id="29" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6427470" y="4309110"/>
-          <a:ext cx="792480" cy="464820"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="曲线连接符 69"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="3"/>
-          <a:endCxn id="30" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7181850" y="3554730"/>
-          <a:ext cx="792480" cy="1973580"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="曲线连接符 76"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-          <a:endCxn id="28" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="6408420" y="3368040"/>
-          <a:ext cx="792480" cy="2346960"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="曲线连接符 78"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-          <a:endCxn id="29" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="7120890" y="4080510"/>
-          <a:ext cx="792480" cy="922020"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="曲线连接符 80"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-          <a:endCxn id="30" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7875270" y="4248150"/>
-          <a:ext cx="792480" cy="586740"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="曲线连接符 86"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="28" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="7124700" y="2659380"/>
-          <a:ext cx="784860" cy="3771900"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="89" name="曲线连接符 88"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="29" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="7837170" y="3371850"/>
-          <a:ext cx="784860" cy="2346960"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="曲线连接符 90"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="30" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="8591550" y="4126230"/>
-          <a:ext cx="784860" cy="838200"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="曲线连接符 96"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="3"/>
-          <a:endCxn id="28" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="7867650" y="1924050"/>
-          <a:ext cx="777240" cy="5250180"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="99" name="曲线连接符 98"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="3"/>
-          <a:endCxn id="29" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="8580120" y="2636520"/>
-          <a:ext cx="777240" cy="3825240"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="101" name="曲线连接符 100"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="3"/>
-          <a:endCxn id="30" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="9334500" y="3390900"/>
-          <a:ext cx="777240" cy="2316480"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="103" name="曲线连接符 102"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="3"/>
-          <a:endCxn id="28" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="8576310" y="1230630"/>
-          <a:ext cx="762000" cy="6652260"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="105" name="曲线连接符 104"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="3"/>
-          <a:endCxn id="29" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="9288780" y="1943100"/>
-          <a:ext cx="762000" cy="5227320"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="107" name="曲线连接符 106"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="3"/>
-          <a:endCxn id="30" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="10043160" y="2697480"/>
-          <a:ext cx="762000" cy="3718560"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9898,7 +10007,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11883,724 +11992,269 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:X31"/>
+  <dimension ref="B4:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:X31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="4" spans="2:24">
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="W4" s="13"/>
-      <c r="X4" s="14"/>
-    </row>
-    <row r="5" spans="2:24">
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="17"/>
-    </row>
-    <row r="6" spans="2:24">
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="17"/>
-    </row>
-    <row r="7" spans="2:24">
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="17"/>
-    </row>
-    <row r="8" spans="2:24">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="17"/>
-    </row>
-    <row r="9" spans="2:24">
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="17"/>
-    </row>
-    <row r="10" spans="2:24">
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="17"/>
-    </row>
-    <row r="11" spans="2:24">
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="17"/>
-    </row>
-    <row r="12" spans="2:24">
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="20"/>
-    </row>
-    <row r="13" spans="2:24">
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="W13" s="22"/>
-      <c r="X13" s="23"/>
-    </row>
-    <row r="14" spans="2:24">
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="26"/>
-    </row>
-    <row r="15" spans="2:24">
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="26"/>
-    </row>
-    <row r="16" spans="2:24">
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="26"/>
-    </row>
-    <row r="17" spans="2:24">
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="26"/>
-    </row>
-    <row r="18" spans="2:24">
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="26"/>
-    </row>
-    <row r="19" spans="2:24">
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="26"/>
-    </row>
-    <row r="20" spans="2:24">
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="26"/>
-    </row>
-    <row r="21" spans="2:24">
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="26"/>
-    </row>
-    <row r="22" spans="2:24">
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="26"/>
-    </row>
-    <row r="23" spans="2:24">
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="26"/>
-    </row>
-    <row r="24" spans="2:24">
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="26"/>
-    </row>
-    <row r="25" spans="2:24">
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="26"/>
-    </row>
-    <row r="26" spans="2:24">
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="26"/>
-    </row>
-    <row r="27" spans="2:24">
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="26"/>
-    </row>
-    <row r="28" spans="2:24">
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="26"/>
-    </row>
-    <row r="29" spans="2:24">
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="26"/>
-    </row>
-    <row r="30" spans="2:24">
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="26"/>
-    </row>
-    <row r="31" spans="2:24">
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="29"/>
+    <row r="4" spans="2:8" ht="14.4" customHeight="1">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="2:8" ht="14.4" customHeight="1">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="V4:X12"/>
-    <mergeCell ref="V13:X31"/>
-    <mergeCell ref="B4:U12"/>
-    <mergeCell ref="B13:U31"/>
+  <mergeCells count="1">
+    <mergeCell ref="B4:H31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12609,6 +12263,1040 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B4:U31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:U31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="4" spans="2:21" ht="14.4" customHeight="1">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="16"/>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="19"/>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="19"/>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="19"/>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="19"/>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="19"/>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="19"/>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="19"/>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="19"/>
+    </row>
+    <row r="13" spans="2:21" ht="14.4" customHeight="1">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="19"/>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="19"/>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="19"/>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="19"/>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="19"/>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="19"/>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="19"/>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="19"/>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="19"/>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="19"/>
+    </row>
+    <row r="23" spans="2:21">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="19"/>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="19"/>
+    </row>
+    <row r="25" spans="2:21">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="19"/>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="19"/>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="19"/>
+    </row>
+    <row r="28" spans="2:21">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="19"/>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="19"/>
+    </row>
+    <row r="30" spans="2:21">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="19"/>
+    </row>
+    <row r="31" spans="2:21">
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:U31"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B4:Q24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="4" spans="2:17" ht="14.4" customHeight="1">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+    </row>
+    <row r="13" spans="2:17" ht="14.4" customHeight="1">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:Q24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:Q69"/>
   <sheetViews>
@@ -12619,577 +13307,577 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="4" spans="2:14">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="37"/>
+      <c r="N4" s="38"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="40"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="40"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="54"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="43"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="60" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="61"/>
-      <c r="N4" s="62"/>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="64"/>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="76"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="64"/>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="78"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="67"/>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="48" t="s">
+      <c r="M8" s="44"/>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="27"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="27"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="27"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="27"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="27"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="27"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="27"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="27"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="27"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="27"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="48" t="s">
+      <c r="C23" s="31"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="68"/>
-      <c r="N8" s="49"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="51"/>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="51"/>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="51"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="51"/>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="51"/>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="51"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="51"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="51"/>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="51"/>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="51"/>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="2:16">
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="2:16">
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="2:16">
-      <c r="B23" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="M23" s="71"/>
-      <c r="N23" s="55"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="31"/>
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="57"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="33"/>
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="57"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="33"/>
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="56"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="57"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="33"/>
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="57"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="33"/>
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="56"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="57"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="33"/>
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="57"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="33"/>
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="56"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="57"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="33"/>
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="56"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="57"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="33"/>
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="2:16">
-      <c r="B32" s="56"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="57"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="33"/>
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="B33" s="56"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="57"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="33"/>
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="B34" s="56"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="57"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="33"/>
       <c r="O34" s="2"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="B35" s="56"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="57"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="33"/>
       <c r="O35" s="2"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="B36" s="56"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="57"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="33"/>
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="B37" s="56"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="57"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="33"/>
       <c r="O37" s="2"/>
     </row>
     <row r="38" spans="1:17">
-      <c r="B38" s="56"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="94"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="57"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="33"/>
       <c r="O38" s="2"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="B39" s="58"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="97"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="59"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="35"/>
       <c r="O39" s="2"/>
     </row>
     <row r="40" spans="1:17">
@@ -13771,351 +14459,351 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:O26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="3" spans="4:15">
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
     </row>
     <row r="4" spans="4:15">
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
     </row>
     <row r="5" spans="4:15">
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
     </row>
     <row r="6" spans="4:15">
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
     </row>
     <row r="7" spans="4:15">
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
     </row>
     <row r="8" spans="4:15">
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
     </row>
     <row r="9" spans="4:15">
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
     </row>
     <row r="10" spans="4:15">
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
     </row>
     <row r="11" spans="4:15">
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
     </row>
     <row r="12" spans="4:15">
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
     </row>
     <row r="13" spans="4:15">
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
     </row>
     <row r="14" spans="4:15">
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
     </row>
     <row r="15" spans="4:15">
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
     </row>
     <row r="16" spans="4:15">
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
     </row>
     <row r="17" spans="4:15">
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
     </row>
     <row r="18" spans="4:15">
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
     </row>
     <row r="19" spans="4:15">
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="98"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
     </row>
     <row r="20" spans="4:15">
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
     </row>
     <row r="21" spans="4:15">
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
     </row>
     <row r="22" spans="4:15">
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
     </row>
     <row r="23" spans="4:15">
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
     </row>
     <row r="24" spans="4:15">
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
     </row>
     <row r="25" spans="4:15">
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
     </row>
     <row r="26" spans="4:15">
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
